--- a/src/input/data.xlsx
+++ b/src/input/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/src/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21422ECE-5C11-1845-9BA8-87E252A72CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D22DD3-5761-8F44-96BD-D17AF7003FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1920" windowWidth="26840" windowHeight="14900" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25000" windowHeight="12580" activeTab="1" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
-    <sheet name="data" sheetId="1" r:id="rId2"/>
+    <sheet name="markets" sheetId="1" r:id="rId2"/>
+    <sheet name="buyers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Variables</t>
   </si>
   <si>
-    <t>Dos niveles</t>
-  </si>
-  <si>
-    <t>Consumidores</t>
-  </si>
-  <si>
     <t>Aliexpress</t>
   </si>
   <si>
@@ -131,15 +126,28 @@
   </si>
   <si>
     <t>GUI</t>
+  </si>
+  <si>
+    <t>Word of mouth</t>
+  </si>
+  <si>
+    <t>BASE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -206,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,19 +248,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -304,44 +299,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BC821915-13F3-452D-B08D-5F79E647A365}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1E5B-209D-BA4A-9A57-BB6890C684CF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,75 +666,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>24</v>
+      <c r="A1" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B1">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>25</v>
+      <c r="A2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
+      <c r="A3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>27</v>
+      <c r="A4" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>28</v>
+      <c r="A5" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>29</v>
+      <c r="A6" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>30</v>
+      <c r="A7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>31</v>
+      <c r="A8" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>32</v>
+      <c r="A9" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -743,10 +752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E161D99-F855-A346-8498-8D1226BB6133}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,282 +763,247 @@
     <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="B4" s="1">
-        <v>6.3E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="C4" s="1">
         <f>1-B4</f>
-        <v>0.93700000000000006</v>
+        <v>0.66199999999999992</v>
       </c>
       <c r="D4" s="1">
-        <v>0.33800000000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E4" s="1">
         <f>1-D4</f>
-        <v>0.66199999999999992</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="F4" s="1">
-        <v>0.52800000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G4" s="1">
         <f>1-F4</f>
-        <v>0.47199999999999998</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="I4" s="1">
         <f>1-H4</f>
-        <v>0.44999999999999996</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="J4" s="1">
-        <v>0.45200000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="K4" s="1">
         <f>1-J4</f>
-        <v>0.54800000000000004</v>
+        <v>0.41700000000000004</v>
       </c>
       <c r="L4" s="1">
-        <v>0.58299999999999996</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="M4" s="1">
         <f>1-L4</f>
-        <v>0.41700000000000004</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="O4" s="1">
-        <f>1-N4</f>
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>0.34799999999999998</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C16" si="0">1-B5</f>
-        <v>0.65200000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.13400000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E16" si="1">1-D5</f>
-        <v>0.86599999999999999</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F5" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:G16" si="2">1-F5</f>
-        <v>0.79500000000000004</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="H5" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I16" si="3">1-H5</f>
-        <v>0.73099999999999998</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="J5" s="2">
-        <v>0.38100000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K16" si="4">1-J5</f>
-        <v>0.61899999999999999</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="L5" s="2">
-        <v>0.27100000000000002</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ref="M5:M16" si="5">1-L5</f>
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" ref="O5:O16" si="6">1-N5</f>
         <v>0.70100000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>0.184</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.81600000000000006</v>
+        <v>0.71500000000000008</v>
       </c>
       <c r="D6" s="1">
-        <v>0.28499999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>0.71500000000000008</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>0.47199999999999998</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>0.52800000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>0.40899999999999997</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.59099999999999997</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.38100000000000001</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>0.61899999999999999</v>
+        <v>0.43700000000000006</v>
       </c>
       <c r="L6" s="1">
-        <v>0.56299999999999994</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="5"/>
-        <v>0.43700000000000006</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="6"/>
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>0.94399999999999995</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D7" s="2">
-        <v>0.39300000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>0.60699999999999998</v>
+        <v>0.40900000000000003</v>
       </c>
       <c r="F7" s="2">
         <v>0.59099999999999997</v>
@@ -1039,218 +1013,190 @@
         <v>0.40900000000000003</v>
       </c>
       <c r="H7" s="2">
-        <v>0.59099999999999997</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="3"/>
-        <v>0.40900000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="J7" s="2">
-        <v>0.45200000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="4"/>
-        <v>0.54800000000000004</v>
+        <v>0.41700000000000004</v>
       </c>
       <c r="L7" s="2">
-        <v>0.58299999999999996</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="5"/>
-        <v>0.41700000000000004</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="6"/>
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>0.246</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.93500000000000005</v>
+        <v>0.754</v>
       </c>
       <c r="D8" s="1">
-        <v>0.246</v>
+        <v>0.432</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>0.754</v>
+        <v>0.56800000000000006</v>
       </c>
       <c r="F8" s="1">
-        <v>0.432</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.56800000000000006</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>0.40899999999999997</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="3"/>
-        <v>0.59099999999999997</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>0.76200000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="L8" s="1">
-        <v>0.41699999999999998</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="5"/>
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="6"/>
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>0.91800000000000004</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="D9" s="2">
-        <v>0.29799999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0.70199999999999996</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="F9" s="2">
-        <v>0.46600000000000003</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>0.53400000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H9" s="2">
-        <v>0.47399999999999998</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>0.52600000000000002</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="J9" s="2">
-        <v>0.28599999999999998</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>0.71399999999999997</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="L9" s="2">
-        <v>0.52100000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="5"/>
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="6"/>
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>0.379</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.621</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>0.40100000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>0.59899999999999998</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="F10" s="1">
-        <v>0.54</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>0.45999999999999996</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>0.21299999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>0.78700000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="1">
-        <v>0.5</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="L10" s="1">
-        <v>0.60399999999999998</v>
+        <v>0.443</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="5"/>
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.443</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="6"/>
         <v>0.55699999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>7.1999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.92800000000000005</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1273,297 +1219,396 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>0.217</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.92800000000000005</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>0.217</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>0.78300000000000003</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="F12" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="2"/>
-        <v>0.83499999999999996</v>
+        <v>0.877</v>
       </c>
       <c r="H12" s="1">
-        <v>0.123</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="3"/>
-        <v>0.877</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>0.76200000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="L12" s="1">
-        <v>0.125</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>0.875</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="6"/>
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.91800000000000004</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.13100000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0.86899999999999999</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="F13" s="2">
-        <v>0.27300000000000002</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>0.72699999999999998</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H13" s="2">
-        <v>0.21099999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="3"/>
-        <v>0.78900000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="J13" s="2">
-        <v>0.19</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>0.81</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="L13" s="2">
-        <v>0.27100000000000002</v>
+        <v>0.186</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="5"/>
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.186</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="6"/>
         <v>0.81400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>8.8999999999999996E-2</v>
+        <f>0.531</f>
+        <v>0.53100000000000003</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0.91100000000000003</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D14" s="1">
-        <f>0.531</f>
-        <v>0.53100000000000003</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>0.46899999999999997</v>
+        <v>0.32399999999999995</v>
       </c>
       <c r="F14" s="1">
-        <v>0.67600000000000005</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>0.32399999999999995</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="H14" s="1">
-        <v>0.71899999999999997</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>0.28100000000000003</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.52400000000000002</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>0.47599999999999998</v>
+        <v>0.29200000000000004</v>
       </c>
       <c r="L14" s="1">
-        <v>0.70799999999999996</v>
+        <v>0.495</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>0.29200000000000004</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.495</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="6"/>
         <v>0.505</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.67</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>0.95199999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="D15" s="2">
-        <v>0.67</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.32999999999999996</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.749</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>0.34699999999999998</v>
+        <v>0.251</v>
       </c>
       <c r="H15" s="2">
-        <v>0.749</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="3"/>
-        <v>0.251</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="J15" s="2">
-        <v>0.61899999999999999</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="4"/>
-        <v>0.38100000000000001</v>
+        <v>0.20799999999999996</v>
       </c>
       <c r="L15" s="2">
-        <v>0.79200000000000004</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="5"/>
-        <v>0.20799999999999996</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="6"/>
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>0.109</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0.89100000000000001</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>0.27900000000000003</v>
+        <v>0.44</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>0.72099999999999997</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F16" s="1">
-        <v>0.44</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.43200000000000005</v>
       </c>
       <c r="H16" s="1">
-        <v>0.56799999999999995</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>0.43200000000000005</v>
+        <v>0.82400000000000007</v>
       </c>
       <c r="J16" s="1">
-        <v>0.17599999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="4"/>
-        <v>0.82400000000000007</v>
+        <v>0.4</v>
       </c>
       <c r="L16" s="1">
-        <v>0.6</v>
+        <v>0.245</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.245</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="6"/>
         <v>0.755</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB4602A-898A-6142-842F-77E54CE9E5C9}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="A15:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/input/data.xlsx
+++ b/src/input/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/src/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D22DD3-5761-8F44-96BD-D17AF7003FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F810ABAE-D98C-DC48-8E75-491423868A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25000" windowHeight="12580" activeTab="1" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
+    <workbookView xWindow="3620" yWindow="460" windowWidth="25000" windowHeight="12580" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Variables</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>BASE</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
   </si>
 </sst>
 </file>
@@ -654,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1E5B-209D-BA4A-9A57-BB6890C684CF}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,6 +748,14 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -754,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E161D99-F855-A346-8498-8D1226BB6133}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,7 +1494,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:C15"/>
+      <selection activeCell="B1" sqref="B1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
